--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1782106.417958721</v>
+        <v>-1785022.015051049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>240.0703908479944</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>36.21463748785203</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>77.45098586553408</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.4456009945353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>4.440065804380797</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>271.8569209441584</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>68.63267763385613</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.80559584836448</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.993583393802643</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>16.70016713795535</v>
+        <v>180.3960620294616</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6860793789968</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>129.6781866221428</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>408.3062316354152</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>384.7008942787112</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>89.72288108060881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>82.03814000453264</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>70.04554881124555</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856548</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>174.7683347992595</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>30.6510490328338</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530893</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002296</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.932264028052</v>
+        <v>1672.817798126042</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.969747087641</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D2" t="n">
-        <v>828.7040484808904</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E2" t="n">
-        <v>828.7040484808904</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F2" t="n">
-        <v>417.7181436912829</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1915.313142416945</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1915.313142416945</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1915.313142416945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1942.532104092174</v>
+        <v>1915.313142416945</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C5" t="n">
-        <v>906.9212171249362</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>868.4274468900699</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286579</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286579</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1748.280186455193</v>
+        <v>1527.841322636248</v>
       </c>
       <c r="C8" t="n">
-        <v>1379.317669514782</v>
+        <v>1158.878805695836</v>
       </c>
       <c r="D8" t="n">
-        <v>1021.051970908031</v>
+        <v>800.613107089086</v>
       </c>
       <c r="E8" t="n">
-        <v>635.2637183097868</v>
+        <v>800.613107089086</v>
       </c>
       <c r="F8" t="n">
-        <v>224.2778135201792</v>
+        <v>389.6272022994785</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y8" t="n">
-        <v>2134.880026519315</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>184.9310491154582</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380754</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.001293180573</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.213040582329</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2271357927214</v>
       </c>
       <c r="G11" t="n">
         <v>380.2440287091278</v>
@@ -5084,7 +5084,7 @@
         <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5130,7 +5130,7 @@
         <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1684.801683606264</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5176,19 +5176,19 @@
         <v>723.0535807419819</v>
       </c>
       <c r="C13" t="n">
-        <v>632.4244079332861</v>
+        <v>554.117397814075</v>
       </c>
       <c r="D13" t="n">
-        <v>632.4244079332861</v>
+        <v>554.117397814075</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>406.2043042316819</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>259.3143567337715</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>176.447548648385</v>
       </c>
       <c r="H13" t="n">
         <v>176.447548648385</v>
@@ -5264,37 +5264,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468478</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962607</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951536</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.530292372935</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>853.5941094450278</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>703.4774700326921</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>555.5643764502989</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487569</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487569</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.378057281682</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.960887244722</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.971336346704</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.178757203174</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768879</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944948</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>266.4891497944948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
         <v>1344.266747951538</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,16 +7497,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
-        <v>-3.152674862310831e-12</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>377.569532532943</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>250.3012726046008</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.80115265030472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23270,61 +23270,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.537044377342397</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>77.52394001801902</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.50391287263429</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.37549921168569</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.873089259435</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>67.07129414993906</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1315623.56830802</v>
+        <v>1315623.568308019</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81225.52431657694</v>
+        <v>81225.52431657695</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26338,7 +26338,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951788</v>
+        <v>7852.63761495089</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862247</v>
+        <v>195850.9371862248</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>5759.938886718172</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670369</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476393</v>
       </c>
       <c r="K4" t="n">
         <v>13058.45186476391</v>
@@ -26451,10 +26451,10 @@
         <v>13058.4518647639</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694929.1687896663</v>
+        <v>-695357.2627279955</v>
       </c>
       <c r="C6" t="n">
         <v>-181293.3627581056</v>
@@ -26528,40 +26528,40 @@
         <v>-181293.3627581056</v>
       </c>
       <c r="E6" t="n">
-        <v>-942237.2286355261</v>
+        <v>-942273.4314892215</v>
       </c>
       <c r="F6" t="n">
-        <v>-13149.43507927854</v>
+        <v>-13184.17300471335</v>
       </c>
       <c r="G6" t="n">
-        <v>-5296.797464326068</v>
+        <v>-5331.535389762474</v>
       </c>
       <c r="H6" t="n">
-        <v>-5296.797464326752</v>
+        <v>-5331.53538976243</v>
       </c>
       <c r="I6" t="n">
-        <v>-5296.797464326752</v>
+        <v>-5331.535389762445</v>
       </c>
       <c r="J6" t="n">
-        <v>-209443.2836718684</v>
+        <v>-209443.2836718686</v>
       </c>
       <c r="K6" t="n">
-        <v>-13592.34648564373</v>
+        <v>-13592.34648564376</v>
       </c>
       <c r="L6" t="n">
-        <v>-13592.34648564382</v>
+        <v>-13592.34648564379</v>
       </c>
       <c r="M6" t="n">
         <v>-137800.8571937023</v>
       </c>
       <c r="N6" t="n">
+        <v>-13592.34648564385</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-33020.06447927564</v>
+      </c>
+      <c r="P6" t="n">
         <v>-13592.34648564382</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-33020.06447927561</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-13592.34648564384</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625289284</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>142.6634508154862</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>237.7923376615183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>247.6975775194472</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>82.82612067652457</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>338.2433681078553</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.02638433357282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>144.6218896244097</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.0840028828396</v>
+        <v>233.3881079913334</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.14590080294052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>26.49270221965233</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688754</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>363.6408844187321</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162568</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175683</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521103</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145748</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437249</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214702</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485293</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,7 +33272,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
-        <v>556.7959610899863</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>510.8679233250724</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,10 +34217,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,7 +34457,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>755.4040473746018</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855421</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>221.0446399742877</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396424</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243168</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924683</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312415</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.90217120714</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625078</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36601,10 +36601,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37230,7 +37230,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5262112417391</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37950,7 +37950,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>624.0623352912685</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
